--- a/Banco Central/3/4/Tasas de colocación 2021 - Diaria.xlsx
+++ b/Banco Central/3/4/Tasas de colocación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Serie</t>
   </si>
@@ -467,6 +467,18 @@
   </si>
   <si>
     <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
   </si>
 </sst>
 </file>
@@ -824,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4944,6 +4956,122 @@
         <v>2.22</v>
       </c>
     </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144">
+        <v>0.06</v>
+      </c>
+      <c r="C144">
+        <v>0.48</v>
+      </c>
+      <c r="D144">
+        <v>0.29</v>
+      </c>
+      <c r="E144">
+        <v>0.55</v>
+      </c>
+      <c r="F144">
+        <v>2.16</v>
+      </c>
+      <c r="G144">
+        <v>2.02</v>
+      </c>
+      <c r="H144">
+        <v>3.01</v>
+      </c>
+      <c r="I144">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145">
+        <v>0.06</v>
+      </c>
+      <c r="C145">
+        <v>0.68</v>
+      </c>
+      <c r="D145">
+        <v>0.34</v>
+      </c>
+      <c r="E145">
+        <v>0.54</v>
+      </c>
+      <c r="F145">
+        <v>1.71</v>
+      </c>
+      <c r="G145">
+        <v>2.09</v>
+      </c>
+      <c r="H145">
+        <v>1.88</v>
+      </c>
+      <c r="I145">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146">
+        <v>0.06</v>
+      </c>
+      <c r="C146">
+        <v>1.06</v>
+      </c>
+      <c r="D146">
+        <v>0.31</v>
+      </c>
+      <c r="E146">
+        <v>0.54</v>
+      </c>
+      <c r="F146">
+        <v>1.83</v>
+      </c>
+      <c r="G146">
+        <v>2.33</v>
+      </c>
+      <c r="H146">
+        <v>1.95</v>
+      </c>
+      <c r="I146">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147">
+        <v>0.06</v>
+      </c>
+      <c r="C147">
+        <v>1.62</v>
+      </c>
+      <c r="D147">
+        <v>0.41</v>
+      </c>
+      <c r="E147">
+        <v>0.96</v>
+      </c>
+      <c r="F147">
+        <v>2.7</v>
+      </c>
+      <c r="G147">
+        <v>2.21</v>
+      </c>
+      <c r="H147">
+        <v>1.8</v>
+      </c>
+      <c r="I147">
+        <v>2.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/3/4/Tasas de colocación 2021 - Diaria.xlsx
+++ b/Banco Central/3/4/Tasas de colocación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Serie</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5072,6 +5075,35 @@
         <v>2.85</v>
       </c>
     </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148">
+        <v>0.06</v>
+      </c>
+      <c r="C148">
+        <v>0.51</v>
+      </c>
+      <c r="D148">
+        <v>0.37</v>
+      </c>
+      <c r="E148">
+        <v>0.74</v>
+      </c>
+      <c r="F148">
+        <v>2.67</v>
+      </c>
+      <c r="G148">
+        <v>2.01</v>
+      </c>
+      <c r="H148">
+        <v>2.04</v>
+      </c>
+      <c r="I148">
+        <v>2.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
